--- a/data/trans_bre/P2C_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P2C_R-Estudios-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>3.79331603422775</v>
+        <v>3.994042381360687</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>4.677858564650777</v>
+        <v>4.845900290914848</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-4.033977883182721</v>
+        <v>-4.355499686889807</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.6478642506710408</v>
+        <v>-0.4456933057278994</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.1698677769735774</v>
+        <v>0.1672136226767605</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1492654916682153</v>
+        <v>0.1583459533880626</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.1377662334875851</v>
+        <v>-0.1436973411305715</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.06467294418236311</v>
+        <v>-0.04527763348740204</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>12.58179818207373</v>
+        <v>12.0497615367577</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>13.79442363768692</v>
+        <v>13.64548519246275</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5.98667521507045</v>
+        <v>6.160217454955392</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5.15722334457076</v>
+        <v>5.053472328592371</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.7122841075592267</v>
+        <v>0.6844128087538025</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5493807858448126</v>
+        <v>0.5496737665381487</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2455742915266539</v>
+        <v>0.2474612490136805</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.6761311716832106</v>
+        <v>0.6617160313791696</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>11.65163302379221</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>4.893475705483065</v>
+        <v>4.893475705483056</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3033446044094024</v>
@@ -749,7 +749,7 @@
         <v>0.2369243179007522</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.527710476199523</v>
+        <v>0.5277104761995222</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>9.364303574206733</v>
+        <v>9.358394386956316</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>16.5934657173572</v>
+        <v>16.22257465623242</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>7.878026428012411</v>
+        <v>7.116336397846888</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2.829355678377822</v>
+        <v>2.838822138793052</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1950119504861879</v>
+        <v>0.1945005616749361</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2758776101268201</v>
+        <v>0.269455820093818</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1550824496829265</v>
+        <v>0.1353729088466375</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.2672931843644066</v>
+        <v>0.2745547864030183</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>18.3794388304883</v>
+        <v>18.09849364776833</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>24.34943880378341</v>
+        <v>24.14663328467387</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>15.66758936065969</v>
+        <v>15.26647841570341</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>6.820981372913836</v>
+        <v>6.657386224800842</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.4250046072870723</v>
+        <v>0.4231980992100906</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4376346336750488</v>
+        <v>0.4325156238385799</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3349488364153304</v>
+        <v>0.3234185949924648</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.8061653264948144</v>
+        <v>0.8037743657664123</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>14.95893788298666</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>3.113847649356796</v>
+        <v>3.113847649356797</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2487571245852558</v>
@@ -849,7 +849,7 @@
         <v>0.2663494233319176</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.4131763729620975</v>
+        <v>0.4131763729620977</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>4.055788700658831</v>
+        <v>4.220603193112972</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>7.184257060490023</v>
+        <v>7.712453600472441</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>6.50836344724221</v>
+        <v>7.431251507747227</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.0243851978084455</v>
+        <v>-0.1704865214275883</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.07565159684214577</v>
+        <v>0.07767279325018077</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.09864303413104761</v>
+        <v>0.1006963969697722</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1097794509537832</v>
+        <v>0.1234746960765422</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.00463422383377193</v>
+        <v>-0.0207954870962144</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>20.55202362985408</v>
+        <v>20.38018668914811</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>22.43406508705234</v>
+        <v>23.16360689664641</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>23.51388323002617</v>
+        <v>22.90763682275037</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6.006043093593079</v>
+        <v>5.816297985026356</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.4645526508458643</v>
+        <v>0.4662685001269213</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.348430757062998</v>
+        <v>0.3645477396904069</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4633377830662642</v>
+        <v>0.4538115873446004</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.054369334173244</v>
+        <v>0.9330046917683408</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>7.116281904365906</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>3.994477467242984</v>
+        <v>3.994477467242979</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2447004917849937</v>
@@ -949,7 +949,7 @@
         <v>0.1611591306046557</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.4489628044276869</v>
+        <v>0.4489628044276863</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>5.948571113499551</v>
+        <v>5.822369486978942</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>9.137703098082209</v>
+        <v>9.151496309210136</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>4.007341374062142</v>
+        <v>3.979663245060613</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2.587312977198455</v>
+        <v>2.609249159905628</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1526827317610396</v>
+        <v>0.1497213376571157</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1797947746970281</v>
+        <v>0.1805335221105662</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.08862257543623762</v>
+        <v>0.08662056215220258</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.2692636855647959</v>
+        <v>0.2671890733212249</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>12.23745216471303</v>
+        <v>11.80295032938713</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>15.5061251806259</v>
+        <v>15.2604047129943</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>10.3648632557933</v>
+        <v>10.14313078714098</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>5.306093468187951</v>
+        <v>5.404981495361882</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.3502811548931603</v>
+        <v>0.3333227627771707</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3316131340461373</v>
+        <v>0.3260292028943538</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2453578101477387</v>
+        <v>0.2371128867320299</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.6692279150609017</v>
+        <v>0.6680054732834531</v>
       </c>
     </row>
     <row r="16">
